--- a/API/forMap.xlsx
+++ b/API/forMap.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="population" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$H$1:$H$210</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">population!$H$1:$H$210</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -914,8 +914,8 @@
   </sheetPr>
   <dimension ref="A1:H210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
